--- a/TestCasesinExcell/Myhero/MyHeroTestdata.xlsx
+++ b/TestCasesinExcell/Myhero/MyHeroTestdata.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7455" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7461" uniqueCount="131">
   <si>
     <t>Description</t>
   </si>
@@ -505,7 +505,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="1294">
+  <fills count="1306">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6930,6 +6930,66 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
       </patternFill>
     </fill>
     <fill>
@@ -6989,7 +7049,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="700">
+  <cellXfs count="706">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -7708,6 +7768,12 @@
     <xf numFmtId="0" fontId="0" fillId="1289" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="1291" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="1293" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1295" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1297" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1299" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1301" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1303" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1305" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -12295,8 +12361,8 @@
       <c r="D33" t="s">
         <v>6</v>
       </c>
-      <c r="E33" t="s">
-        <v>78</v>
+      <c r="E33" t="s" s="700">
+        <v>107</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -12312,8 +12378,8 @@
       <c r="D34" t="s">
         <v>6</v>
       </c>
-      <c r="E34" t="s">
-        <v>78</v>
+      <c r="E34" t="s" s="701">
+        <v>107</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -12329,8 +12395,8 @@
       <c r="D35" t="s">
         <v>6</v>
       </c>
-      <c r="E35" t="s">
-        <v>78</v>
+      <c r="E35" t="s" s="702">
+        <v>107</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -12346,8 +12412,8 @@
       <c r="D36" t="s">
         <v>6</v>
       </c>
-      <c r="E36" t="s">
-        <v>78</v>
+      <c r="E36" t="s" s="703">
+        <v>107</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -12363,8 +12429,8 @@
       <c r="D37" t="s">
         <v>6</v>
       </c>
-      <c r="E37" t="s">
-        <v>78</v>
+      <c r="E37" t="s" s="704">
+        <v>107</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -12380,8 +12446,8 @@
       <c r="D38" t="s">
         <v>6</v>
       </c>
-      <c r="E38" t="s">
-        <v>78</v>
+      <c r="E38" t="s" s="705">
+        <v>107</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">

--- a/TestCasesinExcell/Myhero/MyHeroTestdata.xlsx
+++ b/TestCasesinExcell/Myhero/MyHeroTestdata.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7461" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7466" uniqueCount="131">
   <si>
     <t>Description</t>
   </si>
@@ -505,7 +505,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="1306">
+  <fills count="1316">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6930,6 +6930,56 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
       </patternFill>
     </fill>
     <fill>
@@ -7049,7 +7099,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="706">
+  <cellXfs count="711">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -7774,6 +7824,11 @@
     <xf numFmtId="0" fontId="0" fillId="1301" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="1303" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="1305" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1307" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1309" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1311" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1313" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1315" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -12463,8 +12518,8 @@
       <c r="D39" t="s">
         <v>6</v>
       </c>
-      <c r="E39" t="s">
-        <v>78</v>
+      <c r="E39" t="s" s="706">
+        <v>107</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -12477,8 +12532,8 @@
       <c r="D40" t="s">
         <v>6</v>
       </c>
-      <c r="E40" t="s">
-        <v>78</v>
+      <c r="E40" t="s" s="707">
+        <v>107</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -12494,8 +12549,8 @@
       <c r="D41" t="s">
         <v>6</v>
       </c>
-      <c r="E41" t="s">
-        <v>78</v>
+      <c r="E41" t="s" s="708">
+        <v>107</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -12511,8 +12566,8 @@
       <c r="D42" t="s">
         <v>6</v>
       </c>
-      <c r="E42" t="s">
-        <v>78</v>
+      <c r="E42" t="s" s="709">
+        <v>107</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -12528,8 +12583,8 @@
       <c r="D43" t="s">
         <v>6</v>
       </c>
-      <c r="E43" t="s">
-        <v>78</v>
+      <c r="E43" t="s" s="710">
+        <v>107</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">

--- a/TestCasesinExcell/Myhero/MyHeroTestdata.xlsx
+++ b/TestCasesinExcell/Myhero/MyHeroTestdata.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7466" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7693" uniqueCount="131">
   <si>
     <t>Description</t>
   </si>
@@ -505,7 +505,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="1316">
+  <fills count="1344">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7040,6 +7040,146 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="52"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="52"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
       </patternFill>
     </fill>
     <fill>
@@ -7099,7 +7239,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="711">
+  <cellXfs count="725">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -7829,6 +7969,20 @@
     <xf numFmtId="0" fontId="0" fillId="1311" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="1313" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="1315" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1317" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1319" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1321" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1323" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1325" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1327" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1329" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1331" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1333" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1335" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1337" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1339" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1341" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1343" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -12600,8 +12754,8 @@
       <c r="D44" t="s">
         <v>6</v>
       </c>
-      <c r="E44" t="s">
-        <v>78</v>
+      <c r="E44" t="s" s="711">
+        <v>107</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -12617,8 +12771,8 @@
       <c r="D45" t="s">
         <v>6</v>
       </c>
-      <c r="E45" t="s">
-        <v>78</v>
+      <c r="E45" t="s" s="712">
+        <v>107</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -12631,8 +12785,8 @@
       <c r="D46" t="s">
         <v>6</v>
       </c>
-      <c r="E46" t="s">
-        <v>78</v>
+      <c r="E46" t="s" s="713">
+        <v>99</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -12646,10 +12800,10 @@
         <v>104</v>
       </c>
       <c r="D47" t="s">
-        <v>6</v>
-      </c>
-      <c r="E47" t="s">
-        <v>78</v>
+        <v>104</v>
+      </c>
+      <c r="E47" t="s" s="714">
+        <v>107</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -12665,8 +12819,8 @@
       <c r="D48" t="s">
         <v>6</v>
       </c>
-      <c r="E48" t="s">
-        <v>78</v>
+      <c r="E48" t="s" s="715">
+        <v>107</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -12682,8 +12836,8 @@
       <c r="D49" t="s">
         <v>6</v>
       </c>
-      <c r="E49" t="s">
-        <v>78</v>
+      <c r="E49" t="s" s="716">
+        <v>107</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -12699,8 +12853,8 @@
       <c r="D50" t="s">
         <v>6</v>
       </c>
-      <c r="E50" t="s">
-        <v>78</v>
+      <c r="E50" t="s" s="717">
+        <v>130</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -12822,7 +12976,7 @@
       <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="E2" t="s" s="718">
         <v>5</v>
       </c>
     </row>
@@ -12839,7 +12993,7 @@
       <c r="D3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="31" t="s">
+      <c r="E3" t="s" s="719">
         <v>107</v>
       </c>
     </row>
@@ -12856,7 +13010,7 @@
       <c r="D4" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="32" t="s">
+      <c r="E4" t="s" s="720">
         <v>9</v>
       </c>
     </row>
@@ -12873,7 +13027,7 @@
       <c r="D5" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="33" t="s">
+      <c r="E5" t="s" s="721">
         <v>107</v>
       </c>
     </row>
@@ -12890,7 +13044,7 @@
       <c r="D6" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="34" t="s">
+      <c r="E6" t="s" s="722">
         <v>107</v>
       </c>
     </row>
@@ -12907,7 +13061,7 @@
       <c r="D7" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="35" t="s">
+      <c r="E7" t="s" s="723">
         <v>107</v>
       </c>
     </row>
@@ -12924,7 +13078,7 @@
       <c r="D8" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="36" t="s">
+      <c r="E8" t="s" s="724">
         <v>107</v>
       </c>
     </row>
@@ -12939,10 +13093,10 @@
         <v>105</v>
       </c>
       <c r="D9" t="s">
-        <v>105</v>
-      </c>
-      <c r="E9" s="37" t="s">
-        <v>107</v>
+        <v>6</v>
+      </c>
+      <c r="E9" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -12956,10 +13110,10 @@
         <v>124</v>
       </c>
       <c r="D10" t="s">
-        <v>108</v>
-      </c>
-      <c r="E10" s="38" t="s">
-        <v>107</v>
+        <v>6</v>
+      </c>
+      <c r="E10" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -12973,10 +13127,10 @@
         <v>125</v>
       </c>
       <c r="D11" t="s">
-        <v>109</v>
-      </c>
-      <c r="E11" s="39" t="s">
-        <v>107</v>
+        <v>6</v>
+      </c>
+      <c r="E11" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -12990,10 +13144,10 @@
         <v>126</v>
       </c>
       <c r="D12" t="s">
-        <v>110</v>
-      </c>
-      <c r="E12" s="40" t="s">
-        <v>107</v>
+        <v>6</v>
+      </c>
+      <c r="E12" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -13007,10 +13161,10 @@
         <v>127</v>
       </c>
       <c r="D13" t="s">
-        <v>111</v>
-      </c>
-      <c r="E13" s="41" t="s">
-        <v>107</v>
+        <v>6</v>
+      </c>
+      <c r="E13" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -13026,8 +13180,8 @@
       <c r="D14" t="s">
         <v>6</v>
       </c>
-      <c r="E14" s="42" t="s">
-        <v>107</v>
+      <c r="E14" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -13043,8 +13197,8 @@
       <c r="D15" t="s">
         <v>6</v>
       </c>
-      <c r="E15" s="43" t="s">
-        <v>107</v>
+      <c r="E15" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -13060,8 +13214,8 @@
       <c r="D16" t="s">
         <v>6</v>
       </c>
-      <c r="E16" s="44" t="s">
-        <v>96</v>
+      <c r="E16" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -13077,8 +13231,8 @@
       <c r="D17" t="s">
         <v>6</v>
       </c>
-      <c r="E17" s="45" t="s">
-        <v>107</v>
+      <c r="E17" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -13094,8 +13248,8 @@
       <c r="D18" t="s">
         <v>6</v>
       </c>
-      <c r="E18" s="46" t="s">
-        <v>107</v>
+      <c r="E18" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -13111,8 +13265,8 @@
       <c r="D19" t="s">
         <v>6</v>
       </c>
-      <c r="E19" s="47" t="s">
-        <v>107</v>
+      <c r="E19" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -13128,8 +13282,8 @@
       <c r="D20" t="s">
         <v>6</v>
       </c>
-      <c r="E20" s="48" t="s">
-        <v>107</v>
+      <c r="E20" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -13145,8 +13299,8 @@
       <c r="D21" t="s">
         <v>6</v>
       </c>
-      <c r="E21" s="49" t="s">
-        <v>107</v>
+      <c r="E21" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -13162,8 +13316,8 @@
       <c r="D22" t="s">
         <v>6</v>
       </c>
-      <c r="E22" s="50" t="s">
-        <v>107</v>
+      <c r="E22" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -13179,8 +13333,8 @@
       <c r="D23" t="s">
         <v>6</v>
       </c>
-      <c r="E23" s="51" t="s">
-        <v>107</v>
+      <c r="E23" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -13196,8 +13350,8 @@
       <c r="D24" t="s">
         <v>6</v>
       </c>
-      <c r="E24" s="52" t="s">
-        <v>107</v>
+      <c r="E24" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -13213,8 +13367,8 @@
       <c r="D25" t="s">
         <v>6</v>
       </c>
-      <c r="E25" s="53" t="s">
-        <v>107</v>
+      <c r="E25" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -13230,8 +13384,8 @@
       <c r="D26" t="s">
         <v>6</v>
       </c>
-      <c r="E26" s="54" t="s">
-        <v>107</v>
+      <c r="E26" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -13247,8 +13401,8 @@
       <c r="D27" t="s">
         <v>6</v>
       </c>
-      <c r="E27" s="55" t="s">
-        <v>107</v>
+      <c r="E27" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -13264,8 +13418,8 @@
       <c r="D28" t="s">
         <v>6</v>
       </c>
-      <c r="E28" s="56" t="s">
-        <v>99</v>
+      <c r="E28" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -13279,10 +13433,10 @@
         <v>106</v>
       </c>
       <c r="D29" t="s">
-        <v>106</v>
-      </c>
-      <c r="E29" s="57" t="s">
-        <v>107</v>
+        <v>6</v>
+      </c>
+      <c r="E29" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -13298,8 +13452,8 @@
       <c r="D30" t="s">
         <v>6</v>
       </c>
-      <c r="E30" s="58" t="s">
-        <v>107</v>
+      <c r="E30" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -13315,8 +13469,8 @@
       <c r="D31" t="s">
         <v>6</v>
       </c>
-      <c r="E31" s="59" t="s">
-        <v>107</v>
+      <c r="E31" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -13332,8 +13486,8 @@
       <c r="D32" t="s">
         <v>6</v>
       </c>
-      <c r="E32" s="60" t="s">
-        <v>107</v>
+      <c r="E32" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -13349,8 +13503,8 @@
       <c r="D33" t="s">
         <v>6</v>
       </c>
-      <c r="E33" s="61" t="s">
-        <v>107</v>
+      <c r="E33" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -13366,8 +13520,8 @@
       <c r="D34" t="s">
         <v>6</v>
       </c>
-      <c r="E34" s="62" t="s">
-        <v>107</v>
+      <c r="E34" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -13383,8 +13537,8 @@
       <c r="D35" t="s">
         <v>6</v>
       </c>
-      <c r="E35" s="63" t="s">
-        <v>107</v>
+      <c r="E35" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -13400,8 +13554,8 @@
       <c r="D36" t="s">
         <v>6</v>
       </c>
-      <c r="E36" s="64" t="s">
-        <v>107</v>
+      <c r="E36" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -13417,8 +13571,8 @@
       <c r="D37" t="s">
         <v>6</v>
       </c>
-      <c r="E37" s="65" t="s">
-        <v>107</v>
+      <c r="E37" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -13434,8 +13588,8 @@
       <c r="D38" t="s">
         <v>6</v>
       </c>
-      <c r="E38" s="66" t="s">
-        <v>107</v>
+      <c r="E38" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -13451,8 +13605,8 @@
       <c r="D39" t="s">
         <v>6</v>
       </c>
-      <c r="E39" s="67" t="s">
-        <v>107</v>
+      <c r="E39" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -13465,8 +13619,8 @@
       <c r="D40" t="s">
         <v>6</v>
       </c>
-      <c r="E40" s="68" t="s">
-        <v>107</v>
+      <c r="E40" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -13482,8 +13636,8 @@
       <c r="D41" t="s">
         <v>6</v>
       </c>
-      <c r="E41" s="69" t="s">
-        <v>107</v>
+      <c r="E41" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -13499,8 +13653,8 @@
       <c r="D42" t="s">
         <v>6</v>
       </c>
-      <c r="E42" s="70" t="s">
-        <v>107</v>
+      <c r="E42" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -13516,8 +13670,8 @@
       <c r="D43" t="s">
         <v>6</v>
       </c>
-      <c r="E43" s="71" t="s">
-        <v>107</v>
+      <c r="E43" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -13533,8 +13687,8 @@
       <c r="D44" t="s">
         <v>6</v>
       </c>
-      <c r="E44" s="72" t="s">
-        <v>107</v>
+      <c r="E44" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -13550,8 +13704,8 @@
       <c r="D45" t="s">
         <v>6</v>
       </c>
-      <c r="E45" s="73" t="s">
-        <v>107</v>
+      <c r="E45" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -13564,8 +13718,8 @@
       <c r="D46" t="s">
         <v>6</v>
       </c>
-      <c r="E46" s="74" t="s">
-        <v>99</v>
+      <c r="E46" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -13579,10 +13733,10 @@
         <v>104</v>
       </c>
       <c r="D47" t="s">
-        <v>104</v>
-      </c>
-      <c r="E47" s="75" t="s">
-        <v>107</v>
+        <v>6</v>
+      </c>
+      <c r="E47" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -13598,8 +13752,8 @@
       <c r="D48" t="s">
         <v>6</v>
       </c>
-      <c r="E48" s="76" t="s">
-        <v>107</v>
+      <c r="E48" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -13615,8 +13769,8 @@
       <c r="D49" t="s">
         <v>6</v>
       </c>
-      <c r="E49" s="77" t="s">
-        <v>107</v>
+      <c r="E49" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -13632,8 +13786,8 @@
       <c r="D50" t="s">
         <v>6</v>
       </c>
-      <c r="E50" s="78" t="s">
-        <v>107</v>
+      <c r="E50" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -13649,8 +13803,8 @@
       <c r="D51" t="s">
         <v>6</v>
       </c>
-      <c r="E51" s="79" t="s">
-        <v>107</v>
+      <c r="E51" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -13666,8 +13820,8 @@
       <c r="D52" t="s">
         <v>6</v>
       </c>
-      <c r="E52" s="80" t="s">
-        <v>129</v>
+      <c r="E52" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">

--- a/TestCasesinExcell/Myhero/MyHeroTestdata.xlsx
+++ b/TestCasesinExcell/Myhero/MyHeroTestdata.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7693" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7708" uniqueCount="131">
   <si>
     <t>Description</t>
   </si>
@@ -505,7 +505,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="1344">
+  <fills count="1364">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7200,6 +7200,106 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
       </patternFill>
     </fill>
     <fill>
@@ -7239,7 +7339,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="725">
+  <cellXfs count="735">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -7983,6 +8083,16 @@
     <xf numFmtId="0" fontId="0" fillId="1339" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="1341" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="1343" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1345" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1347" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1349" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1351" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1353" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1355" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1357" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1359" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1361" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1363" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -13093,10 +13203,10 @@
         <v>105</v>
       </c>
       <c r="D9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" t="s">
-        <v>78</v>
+        <v>105</v>
+      </c>
+      <c r="E9" t="s" s="725">
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -13110,10 +13220,10 @@
         <v>124</v>
       </c>
       <c r="D10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" t="s">
-        <v>78</v>
+        <v>108</v>
+      </c>
+      <c r="E10" t="s" s="726">
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -13127,10 +13237,10 @@
         <v>125</v>
       </c>
       <c r="D11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" t="s">
-        <v>78</v>
+        <v>109</v>
+      </c>
+      <c r="E11" t="s" s="727">
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -13144,10 +13254,10 @@
         <v>126</v>
       </c>
       <c r="D12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" t="s">
-        <v>78</v>
+        <v>110</v>
+      </c>
+      <c r="E12" t="s" s="728">
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -13161,10 +13271,10 @@
         <v>127</v>
       </c>
       <c r="D13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" t="s">
-        <v>78</v>
+        <v>111</v>
+      </c>
+      <c r="E13" t="s" s="729">
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -13180,8 +13290,8 @@
       <c r="D14" t="s">
         <v>6</v>
       </c>
-      <c r="E14" t="s">
-        <v>78</v>
+      <c r="E14" t="s" s="730">
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -13197,8 +13307,8 @@
       <c r="D15" t="s">
         <v>6</v>
       </c>
-      <c r="E15" t="s">
-        <v>78</v>
+      <c r="E15" t="s" s="731">
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -13214,8 +13324,8 @@
       <c r="D16" t="s">
         <v>6</v>
       </c>
-      <c r="E16" t="s">
-        <v>78</v>
+      <c r="E16" t="s" s="732">
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -13231,8 +13341,8 @@
       <c r="D17" t="s">
         <v>6</v>
       </c>
-      <c r="E17" t="s">
-        <v>78</v>
+      <c r="E17" t="s" s="733">
+        <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -13248,8 +13358,8 @@
       <c r="D18" t="s">
         <v>6</v>
       </c>
-      <c r="E18" t="s">
-        <v>78</v>
+      <c r="E18" t="s" s="734">
+        <v>107</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">

--- a/TestCasesinExcell/Myhero/MyHeroTestdata.xlsx
+++ b/TestCasesinExcell/Myhero/MyHeroTestdata.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7708" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7711" uniqueCount="131">
   <si>
     <t>Description</t>
   </si>
@@ -505,7 +505,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="1364">
+  <fills count="1370">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7300,6 +7300,36 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
       </patternFill>
     </fill>
     <fill>
@@ -7339,7 +7369,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="735">
+  <cellXfs count="738">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -8093,6 +8123,9 @@
     <xf numFmtId="0" fontId="0" fillId="1359" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="1361" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="1363" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1365" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1367" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1369" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -13375,8 +13408,8 @@
       <c r="D19" t="s">
         <v>6</v>
       </c>
-      <c r="E19" t="s">
-        <v>78</v>
+      <c r="E19" t="s" s="735">
+        <v>107</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -13392,8 +13425,8 @@
       <c r="D20" t="s">
         <v>6</v>
       </c>
-      <c r="E20" t="s">
-        <v>78</v>
+      <c r="E20" t="s" s="736">
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -13409,8 +13442,8 @@
       <c r="D21" t="s">
         <v>6</v>
       </c>
-      <c r="E21" t="s">
-        <v>78</v>
+      <c r="E21" t="s" s="737">
+        <v>107</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">

--- a/TestCasesinExcell/Myhero/MyHeroTestdata.xlsx
+++ b/TestCasesinExcell/Myhero/MyHeroTestdata.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7711" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7725" uniqueCount="131">
   <si>
     <t>Description</t>
   </si>
@@ -505,7 +505,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="1370">
+  <fills count="1396">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7300,6 +7300,136 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
       </patternFill>
     </fill>
     <fill>
@@ -7369,7 +7499,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="738">
+  <cellXfs count="751">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -8126,6 +8256,19 @@
     <xf numFmtId="0" fontId="0" fillId="1365" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="1367" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="1369" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1371" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1373" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1375" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1377" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1379" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1381" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1383" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1385" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1387" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1389" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1391" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1393" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1395" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -13459,8 +13602,8 @@
       <c r="D22" t="s">
         <v>6</v>
       </c>
-      <c r="E22" t="s">
-        <v>78</v>
+      <c r="E22" t="s" s="738">
+        <v>107</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -13476,8 +13619,8 @@
       <c r="D23" t="s">
         <v>6</v>
       </c>
-      <c r="E23" t="s">
-        <v>78</v>
+      <c r="E23" t="s" s="739">
+        <v>107</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -13493,8 +13636,8 @@
       <c r="D24" t="s">
         <v>6</v>
       </c>
-      <c r="E24" t="s">
-        <v>78</v>
+      <c r="E24" t="s" s="740">
+        <v>107</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -13510,8 +13653,8 @@
       <c r="D25" t="s">
         <v>6</v>
       </c>
-      <c r="E25" t="s">
-        <v>78</v>
+      <c r="E25" t="s" s="741">
+        <v>107</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -13527,8 +13670,8 @@
       <c r="D26" t="s">
         <v>6</v>
       </c>
-      <c r="E26" t="s">
-        <v>78</v>
+      <c r="E26" t="s" s="742">
+        <v>107</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -13544,8 +13687,8 @@
       <c r="D27" t="s">
         <v>6</v>
       </c>
-      <c r="E27" t="s">
-        <v>78</v>
+      <c r="E27" t="s" s="743">
+        <v>107</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -13561,8 +13704,8 @@
       <c r="D28" t="s">
         <v>6</v>
       </c>
-      <c r="E28" t="s">
-        <v>78</v>
+      <c r="E28" t="s" s="744">
+        <v>99</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -13576,10 +13719,10 @@
         <v>106</v>
       </c>
       <c r="D29" t="s">
-        <v>6</v>
-      </c>
-      <c r="E29" t="s">
-        <v>78</v>
+        <v>106</v>
+      </c>
+      <c r="E29" t="s" s="745">
+        <v>107</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -13595,8 +13738,8 @@
       <c r="D30" t="s">
         <v>6</v>
       </c>
-      <c r="E30" t="s">
-        <v>78</v>
+      <c r="E30" t="s" s="746">
+        <v>107</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -13612,8 +13755,8 @@
       <c r="D31" t="s">
         <v>6</v>
       </c>
-      <c r="E31" t="s">
-        <v>78</v>
+      <c r="E31" t="s" s="747">
+        <v>107</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -13629,8 +13772,8 @@
       <c r="D32" t="s">
         <v>6</v>
       </c>
-      <c r="E32" t="s">
-        <v>78</v>
+      <c r="E32" t="s" s="748">
+        <v>107</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -13646,8 +13789,8 @@
       <c r="D33" t="s">
         <v>6</v>
       </c>
-      <c r="E33" t="s">
-        <v>78</v>
+      <c r="E33" t="s" s="749">
+        <v>107</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -13663,8 +13806,8 @@
       <c r="D34" t="s">
         <v>6</v>
       </c>
-      <c r="E34" t="s">
-        <v>78</v>
+      <c r="E34" t="s" s="750">
+        <v>107</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">

--- a/TestCasesinExcell/Myhero/MyHeroTestdata.xlsx
+++ b/TestCasesinExcell/Myhero/MyHeroTestdata.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7725" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7733" uniqueCount="131">
   <si>
     <t>Description</t>
   </si>
@@ -505,7 +505,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="1396">
+  <fills count="1412">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7420,6 +7420,86 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
       </patternFill>
     </fill>
     <fill>
@@ -7499,7 +7579,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="751">
+  <cellXfs count="759">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -8269,6 +8349,14 @@
     <xf numFmtId="0" fontId="0" fillId="1391" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="1393" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="1395" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1397" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1399" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1401" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1403" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1405" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1407" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1409" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1411" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -13823,8 +13911,8 @@
       <c r="D35" t="s">
         <v>6</v>
       </c>
-      <c r="E35" t="s">
-        <v>78</v>
+      <c r="E35" t="s" s="751">
+        <v>107</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -13840,8 +13928,8 @@
       <c r="D36" t="s">
         <v>6</v>
       </c>
-      <c r="E36" t="s">
-        <v>78</v>
+      <c r="E36" t="s" s="752">
+        <v>107</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -13857,8 +13945,8 @@
       <c r="D37" t="s">
         <v>6</v>
       </c>
-      <c r="E37" t="s">
-        <v>78</v>
+      <c r="E37" t="s" s="753">
+        <v>107</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -13874,8 +13962,8 @@
       <c r="D38" t="s">
         <v>6</v>
       </c>
-      <c r="E38" t="s">
-        <v>78</v>
+      <c r="E38" t="s" s="754">
+        <v>107</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -13891,8 +13979,8 @@
       <c r="D39" t="s">
         <v>6</v>
       </c>
-      <c r="E39" t="s">
-        <v>78</v>
+      <c r="E39" t="s" s="755">
+        <v>107</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -13905,8 +13993,8 @@
       <c r="D40" t="s">
         <v>6</v>
       </c>
-      <c r="E40" t="s">
-        <v>78</v>
+      <c r="E40" t="s" s="756">
+        <v>107</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -13922,8 +14010,8 @@
       <c r="D41" t="s">
         <v>6</v>
       </c>
-      <c r="E41" t="s">
-        <v>78</v>
+      <c r="E41" t="s" s="757">
+        <v>107</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -13939,8 +14027,8 @@
       <c r="D42" t="s">
         <v>6</v>
       </c>
-      <c r="E42" t="s">
-        <v>78</v>
+      <c r="E42" t="s" s="758">
+        <v>107</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">

--- a/TestCasesinExcell/Myhero/MyHeroTestdata.xlsx
+++ b/TestCasesinExcell/Myhero/MyHeroTestdata.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7733" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7960" uniqueCount="131">
   <si>
     <t>Description</t>
   </si>
@@ -505,7 +505,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="1412">
+  <fills count="1440">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7530,6 +7530,146 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="52"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="52"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
       </patternFill>
     </fill>
     <fill>
@@ -7579,7 +7719,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="759">
+  <cellXfs count="773">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -8357,6 +8497,20 @@
     <xf numFmtId="0" fontId="0" fillId="1407" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="1409" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="1411" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1413" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1415" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1417" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1419" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1421" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1423" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1425" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1427" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1429" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1431" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1433" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1435" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1437" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1439" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -14044,8 +14198,8 @@
       <c r="D43" t="s">
         <v>6</v>
       </c>
-      <c r="E43" t="s">
-        <v>78</v>
+      <c r="E43" t="s" s="759">
+        <v>107</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -14061,8 +14215,8 @@
       <c r="D44" t="s">
         <v>6</v>
       </c>
-      <c r="E44" t="s">
-        <v>78</v>
+      <c r="E44" t="s" s="760">
+        <v>107</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -14078,8 +14232,8 @@
       <c r="D45" t="s">
         <v>6</v>
       </c>
-      <c r="E45" t="s">
-        <v>78</v>
+      <c r="E45" t="s" s="761">
+        <v>107</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -14092,8 +14246,8 @@
       <c r="D46" t="s">
         <v>6</v>
       </c>
-      <c r="E46" t="s">
-        <v>78</v>
+      <c r="E46" t="s" s="762">
+        <v>99</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -14107,10 +14261,10 @@
         <v>104</v>
       </c>
       <c r="D47" t="s">
-        <v>6</v>
-      </c>
-      <c r="E47" t="s">
-        <v>78</v>
+        <v>104</v>
+      </c>
+      <c r="E47" t="s" s="763">
+        <v>107</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -14126,8 +14280,8 @@
       <c r="D48" t="s">
         <v>6</v>
       </c>
-      <c r="E48" t="s">
-        <v>78</v>
+      <c r="E48" t="s" s="764">
+        <v>107</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -14143,8 +14297,8 @@
       <c r="D49" t="s">
         <v>6</v>
       </c>
-      <c r="E49" t="s">
-        <v>78</v>
+      <c r="E49" t="s" s="765">
+        <v>107</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -14160,8 +14314,8 @@
       <c r="D50" t="s">
         <v>6</v>
       </c>
-      <c r="E50" t="s">
-        <v>78</v>
+      <c r="E50" t="s" s="766">
+        <v>130</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -14283,7 +14437,7 @@
       <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="E2" t="s" s="767">
         <v>5</v>
       </c>
     </row>
@@ -14300,7 +14454,7 @@
       <c r="D3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="31" t="s">
+      <c r="E3" t="s" s="768">
         <v>107</v>
       </c>
     </row>
@@ -14317,7 +14471,7 @@
       <c r="D4" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="32" t="s">
+      <c r="E4" t="s" s="769">
         <v>9</v>
       </c>
     </row>
@@ -14334,7 +14488,7 @@
       <c r="D5" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="33" t="s">
+      <c r="E5" t="s" s="770">
         <v>107</v>
       </c>
     </row>
@@ -14351,7 +14505,7 @@
       <c r="D6" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="34" t="s">
+      <c r="E6" t="s" s="771">
         <v>107</v>
       </c>
     </row>
@@ -14368,7 +14522,7 @@
       <c r="D7" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="35" t="s">
+      <c r="E7" t="s" s="772">
         <v>107</v>
       </c>
     </row>
@@ -14385,8 +14539,8 @@
       <c r="D8" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="36" t="s">
-        <v>107</v>
+      <c r="E8" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -14400,10 +14554,10 @@
         <v>105</v>
       </c>
       <c r="D9" t="s">
-        <v>105</v>
-      </c>
-      <c r="E9" s="37" t="s">
-        <v>107</v>
+        <v>6</v>
+      </c>
+      <c r="E9" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -14417,10 +14571,10 @@
         <v>124</v>
       </c>
       <c r="D10" t="s">
-        <v>108</v>
-      </c>
-      <c r="E10" s="38" t="s">
-        <v>107</v>
+        <v>6</v>
+      </c>
+      <c r="E10" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -14434,10 +14588,10 @@
         <v>125</v>
       </c>
       <c r="D11" t="s">
-        <v>109</v>
-      </c>
-      <c r="E11" s="39" t="s">
-        <v>107</v>
+        <v>6</v>
+      </c>
+      <c r="E11" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -14451,10 +14605,10 @@
         <v>126</v>
       </c>
       <c r="D12" t="s">
-        <v>110</v>
-      </c>
-      <c r="E12" s="40" t="s">
-        <v>107</v>
+        <v>6</v>
+      </c>
+      <c r="E12" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -14468,10 +14622,10 @@
         <v>127</v>
       </c>
       <c r="D13" t="s">
-        <v>111</v>
-      </c>
-      <c r="E13" s="41" t="s">
-        <v>107</v>
+        <v>6</v>
+      </c>
+      <c r="E13" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -14487,8 +14641,8 @@
       <c r="D14" t="s">
         <v>6</v>
       </c>
-      <c r="E14" s="42" t="s">
-        <v>107</v>
+      <c r="E14" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -14504,8 +14658,8 @@
       <c r="D15" t="s">
         <v>6</v>
       </c>
-      <c r="E15" s="43" t="s">
-        <v>107</v>
+      <c r="E15" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -14521,8 +14675,8 @@
       <c r="D16" t="s">
         <v>6</v>
       </c>
-      <c r="E16" s="44" t="s">
-        <v>96</v>
+      <c r="E16" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -14538,8 +14692,8 @@
       <c r="D17" t="s">
         <v>6</v>
       </c>
-      <c r="E17" s="45" t="s">
-        <v>107</v>
+      <c r="E17" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -14555,8 +14709,8 @@
       <c r="D18" t="s">
         <v>6</v>
       </c>
-      <c r="E18" s="46" t="s">
-        <v>107</v>
+      <c r="E18" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -14572,8 +14726,8 @@
       <c r="D19" t="s">
         <v>6</v>
       </c>
-      <c r="E19" s="47" t="s">
-        <v>107</v>
+      <c r="E19" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -14589,8 +14743,8 @@
       <c r="D20" t="s">
         <v>6</v>
       </c>
-      <c r="E20" s="48" t="s">
-        <v>107</v>
+      <c r="E20" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -14606,8 +14760,8 @@
       <c r="D21" t="s">
         <v>6</v>
       </c>
-      <c r="E21" s="49" t="s">
-        <v>107</v>
+      <c r="E21" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -14623,8 +14777,8 @@
       <c r="D22" t="s">
         <v>6</v>
       </c>
-      <c r="E22" s="50" t="s">
-        <v>107</v>
+      <c r="E22" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -14640,8 +14794,8 @@
       <c r="D23" t="s">
         <v>6</v>
       </c>
-      <c r="E23" s="51" t="s">
-        <v>107</v>
+      <c r="E23" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -14657,8 +14811,8 @@
       <c r="D24" t="s">
         <v>6</v>
       </c>
-      <c r="E24" s="52" t="s">
-        <v>107</v>
+      <c r="E24" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -14674,8 +14828,8 @@
       <c r="D25" t="s">
         <v>6</v>
       </c>
-      <c r="E25" s="53" t="s">
-        <v>107</v>
+      <c r="E25" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -14691,8 +14845,8 @@
       <c r="D26" t="s">
         <v>6</v>
       </c>
-      <c r="E26" s="54" t="s">
-        <v>107</v>
+      <c r="E26" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -14708,8 +14862,8 @@
       <c r="D27" t="s">
         <v>6</v>
       </c>
-      <c r="E27" s="55" t="s">
-        <v>107</v>
+      <c r="E27" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -14725,8 +14879,8 @@
       <c r="D28" t="s">
         <v>6</v>
       </c>
-      <c r="E28" s="56" t="s">
-        <v>99</v>
+      <c r="E28" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -14740,10 +14894,10 @@
         <v>106</v>
       </c>
       <c r="D29" t="s">
-        <v>106</v>
-      </c>
-      <c r="E29" s="57" t="s">
-        <v>107</v>
+        <v>6</v>
+      </c>
+      <c r="E29" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -14759,8 +14913,8 @@
       <c r="D30" t="s">
         <v>6</v>
       </c>
-      <c r="E30" s="58" t="s">
-        <v>107</v>
+      <c r="E30" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -14776,8 +14930,8 @@
       <c r="D31" t="s">
         <v>6</v>
       </c>
-      <c r="E31" s="59" t="s">
-        <v>107</v>
+      <c r="E31" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -14793,8 +14947,8 @@
       <c r="D32" t="s">
         <v>6</v>
       </c>
-      <c r="E32" s="60" t="s">
-        <v>107</v>
+      <c r="E32" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -14810,8 +14964,8 @@
       <c r="D33" t="s">
         <v>6</v>
       </c>
-      <c r="E33" s="61" t="s">
-        <v>107</v>
+      <c r="E33" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -14827,8 +14981,8 @@
       <c r="D34" t="s">
         <v>6</v>
       </c>
-      <c r="E34" s="62" t="s">
-        <v>107</v>
+      <c r="E34" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -14844,8 +14998,8 @@
       <c r="D35" t="s">
         <v>6</v>
       </c>
-      <c r="E35" s="63" t="s">
-        <v>107</v>
+      <c r="E35" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -14861,8 +15015,8 @@
       <c r="D36" t="s">
         <v>6</v>
       </c>
-      <c r="E36" s="64" t="s">
-        <v>107</v>
+      <c r="E36" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -14878,8 +15032,8 @@
       <c r="D37" t="s">
         <v>6</v>
       </c>
-      <c r="E37" s="65" t="s">
-        <v>107</v>
+      <c r="E37" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -14895,8 +15049,8 @@
       <c r="D38" t="s">
         <v>6</v>
       </c>
-      <c r="E38" s="66" t="s">
-        <v>107</v>
+      <c r="E38" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -14912,8 +15066,8 @@
       <c r="D39" t="s">
         <v>6</v>
       </c>
-      <c r="E39" s="67" t="s">
-        <v>107</v>
+      <c r="E39" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -14926,8 +15080,8 @@
       <c r="D40" t="s">
         <v>6</v>
       </c>
-      <c r="E40" s="68" t="s">
-        <v>107</v>
+      <c r="E40" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -14943,8 +15097,8 @@
       <c r="D41" t="s">
         <v>6</v>
       </c>
-      <c r="E41" s="69" t="s">
-        <v>107</v>
+      <c r="E41" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -14960,8 +15114,8 @@
       <c r="D42" t="s">
         <v>6</v>
       </c>
-      <c r="E42" s="70" t="s">
-        <v>107</v>
+      <c r="E42" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -14977,8 +15131,8 @@
       <c r="D43" t="s">
         <v>6</v>
       </c>
-      <c r="E43" s="71" t="s">
-        <v>107</v>
+      <c r="E43" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -14994,8 +15148,8 @@
       <c r="D44" t="s">
         <v>6</v>
       </c>
-      <c r="E44" s="72" t="s">
-        <v>107</v>
+      <c r="E44" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -15011,8 +15165,8 @@
       <c r="D45" t="s">
         <v>6</v>
       </c>
-      <c r="E45" s="73" t="s">
-        <v>107</v>
+      <c r="E45" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -15025,8 +15179,8 @@
       <c r="D46" t="s">
         <v>6</v>
       </c>
-      <c r="E46" s="74" t="s">
-        <v>99</v>
+      <c r="E46" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -15040,10 +15194,10 @@
         <v>104</v>
       </c>
       <c r="D47" t="s">
-        <v>104</v>
-      </c>
-      <c r="E47" s="75" t="s">
-        <v>107</v>
+        <v>6</v>
+      </c>
+      <c r="E47" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -15059,8 +15213,8 @@
       <c r="D48" t="s">
         <v>6</v>
       </c>
-      <c r="E48" s="76" t="s">
-        <v>107</v>
+      <c r="E48" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -15076,8 +15230,8 @@
       <c r="D49" t="s">
         <v>6</v>
       </c>
-      <c r="E49" s="77" t="s">
-        <v>107</v>
+      <c r="E49" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -15093,8 +15247,8 @@
       <c r="D50" t="s">
         <v>6</v>
       </c>
-      <c r="E50" s="78" t="s">
-        <v>107</v>
+      <c r="E50" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -15110,8 +15264,8 @@
       <c r="D51" t="s">
         <v>6</v>
       </c>
-      <c r="E51" s="79" t="s">
-        <v>107</v>
+      <c r="E51" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -15127,8 +15281,8 @@
       <c r="D52" t="s">
         <v>6</v>
       </c>
-      <c r="E52" s="80" t="s">
-        <v>129</v>
+      <c r="E52" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">

--- a/TestCasesinExcell/Myhero/MyHeroTestdata.xlsx
+++ b/TestCasesinExcell/Myhero/MyHeroTestdata.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7960" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7972" uniqueCount="131">
   <si>
     <t>Description</t>
   </si>
@@ -505,7 +505,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="1440">
+  <fills count="1454">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7670,6 +7670,76 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
       </patternFill>
     </fill>
     <fill>
@@ -7719,7 +7789,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="773">
+  <cellXfs count="780">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -8511,6 +8581,13 @@
     <xf numFmtId="0" fontId="0" fillId="1435" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="1437" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="1439" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1441" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1443" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1445" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1447" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1449" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1451" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1453" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -14554,10 +14631,10 @@
         <v>105</v>
       </c>
       <c r="D9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" t="s">
-        <v>78</v>
+        <v>105</v>
+      </c>
+      <c r="E9" t="s" s="773">
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -14571,10 +14648,10 @@
         <v>124</v>
       </c>
       <c r="D10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" t="s">
-        <v>78</v>
+        <v>108</v>
+      </c>
+      <c r="E10" t="s" s="774">
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -14588,10 +14665,10 @@
         <v>125</v>
       </c>
       <c r="D11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" t="s">
-        <v>78</v>
+        <v>109</v>
+      </c>
+      <c r="E11" t="s" s="775">
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -14605,10 +14682,10 @@
         <v>126</v>
       </c>
       <c r="D12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" t="s">
-        <v>78</v>
+        <v>110</v>
+      </c>
+      <c r="E12" t="s" s="776">
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -14622,10 +14699,10 @@
         <v>127</v>
       </c>
       <c r="D13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" t="s">
-        <v>78</v>
+        <v>111</v>
+      </c>
+      <c r="E13" t="s" s="777">
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -14641,8 +14718,8 @@
       <c r="D14" t="s">
         <v>6</v>
       </c>
-      <c r="E14" t="s">
-        <v>78</v>
+      <c r="E14" t="s" s="778">
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -14658,8 +14735,8 @@
       <c r="D15" t="s">
         <v>6</v>
       </c>
-      <c r="E15" t="s">
-        <v>78</v>
+      <c r="E15" t="s" s="779">
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">

--- a/TestCasesinExcell/Myhero/MyHeroTestdata.xlsx
+++ b/TestCasesinExcell/Myhero/MyHeroTestdata.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7972" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7980" uniqueCount="131">
   <si>
     <t>Description</t>
   </si>
@@ -505,7 +505,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="1454">
+  <fills count="1470">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7700,6 +7700,86 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
       </patternFill>
     </fill>
     <fill>
@@ -7789,7 +7869,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="780">
+  <cellXfs count="788">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -8588,6 +8668,14 @@
     <xf numFmtId="0" fontId="0" fillId="1449" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="1451" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="1453" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1455" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1457" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1459" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1461" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1463" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1465" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1467" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1469" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -14752,8 +14840,8 @@
       <c r="D16" t="s">
         <v>6</v>
       </c>
-      <c r="E16" t="s">
-        <v>78</v>
+      <c r="E16" t="s" s="780">
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -14769,8 +14857,8 @@
       <c r="D17" t="s">
         <v>6</v>
       </c>
-      <c r="E17" t="s">
-        <v>78</v>
+      <c r="E17" t="s" s="781">
+        <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -14786,8 +14874,8 @@
       <c r="D18" t="s">
         <v>6</v>
       </c>
-      <c r="E18" t="s">
-        <v>78</v>
+      <c r="E18" t="s" s="782">
+        <v>107</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -14803,8 +14891,8 @@
       <c r="D19" t="s">
         <v>6</v>
       </c>
-      <c r="E19" t="s">
-        <v>78</v>
+      <c r="E19" t="s" s="783">
+        <v>107</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -14820,8 +14908,8 @@
       <c r="D20" t="s">
         <v>6</v>
       </c>
-      <c r="E20" t="s">
-        <v>78</v>
+      <c r="E20" t="s" s="784">
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -14837,8 +14925,8 @@
       <c r="D21" t="s">
         <v>6</v>
       </c>
-      <c r="E21" t="s">
-        <v>78</v>
+      <c r="E21" t="s" s="785">
+        <v>107</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -14854,8 +14942,8 @@
       <c r="D22" t="s">
         <v>6</v>
       </c>
-      <c r="E22" t="s">
-        <v>78</v>
+      <c r="E22" t="s" s="786">
+        <v>107</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -14871,8 +14959,8 @@
       <c r="D23" t="s">
         <v>6</v>
       </c>
-      <c r="E23" t="s">
-        <v>78</v>
+      <c r="E23" t="s" s="787">
+        <v>107</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">

--- a/TestCasesinExcell/Myhero/MyHeroTestdata.xlsx
+++ b/TestCasesinExcell/Myhero/MyHeroTestdata.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7980" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7991" uniqueCount="131">
   <si>
     <t>Description</t>
   </si>
@@ -505,7 +505,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="1470">
+  <fills count="1490">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7800,6 +7800,106 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
       </patternFill>
     </fill>
     <fill>
@@ -7869,7 +7969,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="788">
+  <cellXfs count="798">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -8676,6 +8776,16 @@
     <xf numFmtId="0" fontId="0" fillId="1465" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="1467" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="1469" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1471" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1473" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1475" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1477" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1479" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1481" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1483" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1485" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1487" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1489" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -14976,8 +15086,8 @@
       <c r="D24" t="s">
         <v>6</v>
       </c>
-      <c r="E24" t="s">
-        <v>78</v>
+      <c r="E24" t="s" s="788">
+        <v>107</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -14993,8 +15103,8 @@
       <c r="D25" t="s">
         <v>6</v>
       </c>
-      <c r="E25" t="s">
-        <v>78</v>
+      <c r="E25" t="s" s="789">
+        <v>107</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -15010,8 +15120,8 @@
       <c r="D26" t="s">
         <v>6</v>
       </c>
-      <c r="E26" t="s">
-        <v>78</v>
+      <c r="E26" t="s" s="790">
+        <v>107</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -15027,8 +15137,8 @@
       <c r="D27" t="s">
         <v>6</v>
       </c>
-      <c r="E27" t="s">
-        <v>78</v>
+      <c r="E27" t="s" s="791">
+        <v>107</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -15044,8 +15154,8 @@
       <c r="D28" t="s">
         <v>6</v>
       </c>
-      <c r="E28" t="s">
-        <v>78</v>
+      <c r="E28" t="s" s="792">
+        <v>99</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -15059,10 +15169,10 @@
         <v>106</v>
       </c>
       <c r="D29" t="s">
-        <v>6</v>
-      </c>
-      <c r="E29" t="s">
-        <v>78</v>
+        <v>106</v>
+      </c>
+      <c r="E29" t="s" s="793">
+        <v>107</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -15078,8 +15188,8 @@
       <c r="D30" t="s">
         <v>6</v>
       </c>
-      <c r="E30" t="s">
-        <v>78</v>
+      <c r="E30" t="s" s="794">
+        <v>107</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -15095,8 +15205,8 @@
       <c r="D31" t="s">
         <v>6</v>
       </c>
-      <c r="E31" t="s">
-        <v>78</v>
+      <c r="E31" t="s" s="795">
+        <v>107</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -15112,8 +15222,8 @@
       <c r="D32" t="s">
         <v>6</v>
       </c>
-      <c r="E32" t="s">
-        <v>78</v>
+      <c r="E32" t="s" s="796">
+        <v>107</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -15129,8 +15239,8 @@
       <c r="D33" t="s">
         <v>6</v>
       </c>
-      <c r="E33" t="s">
-        <v>78</v>
+      <c r="E33" t="s" s="797">
+        <v>107</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">

--- a/TestCasesinExcell/Myhero/MyHeroTestdata.xlsx
+++ b/TestCasesinExcell/Myhero/MyHeroTestdata.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7991" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8000" uniqueCount="131">
   <si>
     <t>Description</t>
   </si>
@@ -505,7 +505,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="1490">
+  <fills count="1508">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7900,6 +7900,96 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
       </patternFill>
     </fill>
     <fill>
@@ -7969,7 +8059,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="798">
+  <cellXfs count="807">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -8786,6 +8876,15 @@
     <xf numFmtId="0" fontId="0" fillId="1485" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="1487" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="1489" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1491" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1493" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1495" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1497" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1499" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1501" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1503" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1505" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1507" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -15256,8 +15355,8 @@
       <c r="D34" t="s">
         <v>6</v>
       </c>
-      <c r="E34" t="s">
-        <v>78</v>
+      <c r="E34" t="s" s="798">
+        <v>107</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -15273,8 +15372,8 @@
       <c r="D35" t="s">
         <v>6</v>
       </c>
-      <c r="E35" t="s">
-        <v>78</v>
+      <c r="E35" t="s" s="799">
+        <v>107</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -15290,8 +15389,8 @@
       <c r="D36" t="s">
         <v>6</v>
       </c>
-      <c r="E36" t="s">
-        <v>78</v>
+      <c r="E36" t="s" s="800">
+        <v>107</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -15307,8 +15406,8 @@
       <c r="D37" t="s">
         <v>6</v>
       </c>
-      <c r="E37" t="s">
-        <v>78</v>
+      <c r="E37" t="s" s="801">
+        <v>107</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -15324,8 +15423,8 @@
       <c r="D38" t="s">
         <v>6</v>
       </c>
-      <c r="E38" t="s">
-        <v>78</v>
+      <c r="E38" t="s" s="802">
+        <v>107</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -15341,8 +15440,8 @@
       <c r="D39" t="s">
         <v>6</v>
       </c>
-      <c r="E39" t="s">
-        <v>78</v>
+      <c r="E39" t="s" s="803">
+        <v>107</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -15355,8 +15454,8 @@
       <c r="D40" t="s">
         <v>6</v>
       </c>
-      <c r="E40" t="s">
-        <v>78</v>
+      <c r="E40" t="s" s="804">
+        <v>107</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -15372,8 +15471,8 @@
       <c r="D41" t="s">
         <v>6</v>
       </c>
-      <c r="E41" t="s">
-        <v>78</v>
+      <c r="E41" t="s" s="805">
+        <v>107</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -15389,8 +15488,8 @@
       <c r="D42" t="s">
         <v>6</v>
       </c>
-      <c r="E42" t="s">
-        <v>78</v>
+      <c r="E42" t="s" s="806">
+        <v>107</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">

--- a/TestCasesinExcell/Myhero/MyHeroTestdata.xlsx
+++ b/TestCasesinExcell/Myhero/MyHeroTestdata.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8000" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8222" uniqueCount="131">
   <si>
     <t>Description</t>
   </si>
@@ -505,7 +505,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="1508">
+  <fills count="1526">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8040,6 +8040,96 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="52"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="52"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
       </patternFill>
     </fill>
   </fills>
@@ -8059,7 +8149,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="807">
+  <cellXfs count="816">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -8885,6 +8975,15 @@
     <xf numFmtId="0" fontId="0" fillId="1503" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="1505" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="1507" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1509" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1511" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1513" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1515" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1517" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1519" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1521" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1523" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1525" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -9215,6 +9314,9 @@
       <c r="E2" t="s" s="81">
         <v>5</v>
       </c>
+      <c r="F2" t="s" s="815">
+        <v>5</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
@@ -9232,6 +9334,9 @@
       <c r="E3" t="s" s="82">
         <v>107</v>
       </c>
+      <c r="F3" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
@@ -9249,6 +9354,9 @@
       <c r="E4" t="s" s="83">
         <v>9</v>
       </c>
+      <c r="F4" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
@@ -9266,6 +9374,9 @@
       <c r="E5" t="s" s="84">
         <v>107</v>
       </c>
+      <c r="F5" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
@@ -9283,6 +9394,9 @@
       <c r="E6" t="s" s="85">
         <v>107</v>
       </c>
+      <c r="F6" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
@@ -9300,6 +9414,9 @@
       <c r="E7" t="s" s="86">
         <v>107</v>
       </c>
+      <c r="F7" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
@@ -9317,6 +9434,9 @@
       <c r="E8" t="s" s="87">
         <v>107</v>
       </c>
+      <c r="F8" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
@@ -9329,10 +9449,13 @@
         <v>105</v>
       </c>
       <c r="D9" t="s">
-        <v>105</v>
+        <v>6</v>
       </c>
       <c r="E9" t="s" s="88">
         <v>107</v>
+      </c>
+      <c r="F9" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -9346,10 +9469,13 @@
         <v>124</v>
       </c>
       <c r="D10" t="s">
-        <v>108</v>
+        <v>6</v>
       </c>
       <c r="E10" t="s" s="89">
         <v>107</v>
+      </c>
+      <c r="F10" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -9363,10 +9489,13 @@
         <v>125</v>
       </c>
       <c r="D11" t="s">
-        <v>109</v>
+        <v>6</v>
       </c>
       <c r="E11" t="s" s="90">
         <v>107</v>
+      </c>
+      <c r="F11" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -9380,10 +9509,13 @@
         <v>126</v>
       </c>
       <c r="D12" t="s">
-        <v>110</v>
+        <v>6</v>
       </c>
       <c r="E12" t="s" s="91">
         <v>107</v>
+      </c>
+      <c r="F12" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -9397,10 +9529,13 @@
         <v>127</v>
       </c>
       <c r="D13" t="s">
-        <v>111</v>
+        <v>6</v>
       </c>
       <c r="E13" t="s" s="92">
         <v>107</v>
+      </c>
+      <c r="F13" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -9419,6 +9554,9 @@
       <c r="E14" t="s" s="93">
         <v>107</v>
       </c>
+      <c r="F14" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
@@ -9436,6 +9574,9 @@
       <c r="E15" t="s" s="94">
         <v>107</v>
       </c>
+      <c r="F15" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
@@ -9453,6 +9594,9 @@
       <c r="E16" t="s" s="95">
         <v>96</v>
       </c>
+      <c r="F16" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="s">
@@ -9470,6 +9614,9 @@
       <c r="E17" t="s" s="96">
         <v>107</v>
       </c>
+      <c r="F17" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="21" t="s">
@@ -9487,6 +9634,9 @@
       <c r="E18" t="s" s="97">
         <v>107</v>
       </c>
+      <c r="F18" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="21" t="s">
@@ -9504,6 +9654,9 @@
       <c r="E19" t="s" s="98">
         <v>107</v>
       </c>
+      <c r="F19" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
@@ -9521,6 +9674,9 @@
       <c r="E20" t="s" s="99">
         <v>107</v>
       </c>
+      <c r="F20" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="25" t="s">
@@ -9538,6 +9694,9 @@
       <c r="E21" t="s" s="100">
         <v>107</v>
       </c>
+      <c r="F21" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="27" t="s">
@@ -9555,6 +9714,9 @@
       <c r="E22" t="s" s="101">
         <v>107</v>
       </c>
+      <c r="F22" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="25" t="s">
@@ -9572,6 +9734,9 @@
       <c r="E23" t="s" s="102">
         <v>107</v>
       </c>
+      <c r="F23" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="27" t="s">
@@ -9589,6 +9754,9 @@
       <c r="E24" t="s" s="103">
         <v>107</v>
       </c>
+      <c r="F24" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="27" t="s">
@@ -9606,6 +9774,9 @@
       <c r="E25" t="s" s="104">
         <v>107</v>
       </c>
+      <c r="F25" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="27" t="s">
@@ -9623,6 +9794,9 @@
       <c r="E26" t="s" s="105">
         <v>107</v>
       </c>
+      <c r="F26" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="21" t="s">
@@ -9640,6 +9814,9 @@
       <c r="E27" t="s" s="106">
         <v>107</v>
       </c>
+      <c r="F27" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
@@ -9657,6 +9834,9 @@
       <c r="E28" t="s" s="107">
         <v>99</v>
       </c>
+      <c r="F28" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="16" t="s">
@@ -9669,10 +9849,13 @@
         <v>106</v>
       </c>
       <c r="D29" t="s">
-        <v>106</v>
+        <v>6</v>
       </c>
       <c r="E29" t="s" s="108">
         <v>107</v>
+      </c>
+      <c r="F29" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -9691,6 +9874,9 @@
       <c r="E30" t="s" s="109">
         <v>107</v>
       </c>
+      <c r="F30" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="18" t="s">
@@ -9708,6 +9894,9 @@
       <c r="E31" t="s" s="110">
         <v>107</v>
       </c>
+      <c r="F31" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="18" t="s">
@@ -9725,6 +9914,9 @@
       <c r="E32" t="s" s="111">
         <v>107</v>
       </c>
+      <c r="F32" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="19" t="s">
@@ -9742,6 +9934,9 @@
       <c r="E33" t="s" s="112">
         <v>107</v>
       </c>
+      <c r="F33" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="21" t="s">
@@ -9759,6 +9954,9 @@
       <c r="E34" t="s" s="113">
         <v>107</v>
       </c>
+      <c r="F34" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
@@ -9776,6 +9974,9 @@
       <c r="E35" t="s" s="114">
         <v>107</v>
       </c>
+      <c r="F35" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
@@ -9793,6 +9994,9 @@
       <c r="E36" t="s" s="115">
         <v>107</v>
       </c>
+      <c r="F36" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
@@ -9810,6 +10014,9 @@
       <c r="E37" t="s" s="116">
         <v>107</v>
       </c>
+      <c r="F37" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
@@ -9827,6 +10034,9 @@
       <c r="E38" t="s" s="117">
         <v>107</v>
       </c>
+      <c r="F38" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
@@ -9844,6 +10054,9 @@
       <c r="E39" t="s" s="118">
         <v>107</v>
       </c>
+      <c r="F39" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
@@ -9858,6 +10071,9 @@
       <c r="E40" t="s" s="119">
         <v>107</v>
       </c>
+      <c r="F40" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
@@ -9875,6 +10091,9 @@
       <c r="E41" t="s" s="120">
         <v>107</v>
       </c>
+      <c r="F41" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="s">
@@ -9892,6 +10111,9 @@
       <c r="E42" t="s" s="121">
         <v>107</v>
       </c>
+      <c r="F42" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
@@ -9909,6 +10131,9 @@
       <c r="E43" t="s" s="122">
         <v>107</v>
       </c>
+      <c r="F43" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="12" t="s">
@@ -9926,6 +10151,9 @@
       <c r="E44" t="s" s="123">
         <v>107</v>
       </c>
+      <c r="F44" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="12" t="s">
@@ -9943,6 +10171,9 @@
       <c r="E45" t="s" s="124">
         <v>107</v>
       </c>
+      <c r="F45" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="14" t="s">
@@ -9957,6 +10188,9 @@
       <c r="E46" t="s" s="125">
         <v>99</v>
       </c>
+      <c r="F46" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
@@ -9969,10 +10203,13 @@
         <v>104</v>
       </c>
       <c r="D47" t="s">
-        <v>104</v>
+        <v>6</v>
       </c>
       <c r="E47" t="s" s="126">
         <v>107</v>
+      </c>
+      <c r="F47" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -9991,6 +10228,9 @@
       <c r="E48" t="s" s="127">
         <v>107</v>
       </c>
+      <c r="F48" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="21" t="s">
@@ -10008,6 +10248,9 @@
       <c r="E49" t="s" s="128">
         <v>107</v>
       </c>
+      <c r="F49" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
@@ -10025,6 +10268,9 @@
       <c r="E50" t="s" s="129">
         <v>130</v>
       </c>
+      <c r="F50" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
@@ -10042,6 +10288,9 @@
       <c r="E51" t="s">
         <v>78</v>
       </c>
+      <c r="F51" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
@@ -10059,6 +10308,9 @@
       <c r="E52" t="s">
         <v>78</v>
       </c>
+      <c r="F52" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
@@ -10076,6 +10328,9 @@
       <c r="E53" t="s">
         <v>78</v>
       </c>
+      <c r="F53" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
@@ -10085,6 +10340,9 @@
         <v>6</v>
       </c>
       <c r="E54" t="s">
+        <v>78</v>
+      </c>
+      <c r="F54" t="s">
         <v>78</v>
       </c>
     </row>
@@ -15505,8 +15763,8 @@
       <c r="D43" t="s">
         <v>6</v>
       </c>
-      <c r="E43" t="s">
-        <v>78</v>
+      <c r="E43" t="s" s="807">
+        <v>107</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -15522,8 +15780,8 @@
       <c r="D44" t="s">
         <v>6</v>
       </c>
-      <c r="E44" t="s">
-        <v>78</v>
+      <c r="E44" t="s" s="808">
+        <v>107</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -15539,8 +15797,8 @@
       <c r="D45" t="s">
         <v>6</v>
       </c>
-      <c r="E45" t="s">
-        <v>78</v>
+      <c r="E45" t="s" s="809">
+        <v>107</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -15553,8 +15811,8 @@
       <c r="D46" t="s">
         <v>6</v>
       </c>
-      <c r="E46" t="s">
-        <v>78</v>
+      <c r="E46" t="s" s="810">
+        <v>99</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -15568,10 +15826,10 @@
         <v>104</v>
       </c>
       <c r="D47" t="s">
-        <v>6</v>
-      </c>
-      <c r="E47" t="s">
-        <v>78</v>
+        <v>104</v>
+      </c>
+      <c r="E47" t="s" s="811">
+        <v>107</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -15587,8 +15845,8 @@
       <c r="D48" t="s">
         <v>6</v>
       </c>
-      <c r="E48" t="s">
-        <v>78</v>
+      <c r="E48" t="s" s="812">
+        <v>107</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -15604,8 +15862,8 @@
       <c r="D49" t="s">
         <v>6</v>
       </c>
-      <c r="E49" t="s">
-        <v>78</v>
+      <c r="E49" t="s" s="813">
+        <v>107</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -15621,8 +15879,8 @@
       <c r="D50" t="s">
         <v>6</v>
       </c>
-      <c r="E50" t="s">
-        <v>78</v>
+      <c r="E50" t="s" s="814">
+        <v>130</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">

--- a/TestCasesinExcell/Myhero/MyHeroTestdata.xlsx
+++ b/TestCasesinExcell/Myhero/MyHeroTestdata.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12405" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12618" uniqueCount="131">
   <si>
     <t>Description</t>
   </si>
@@ -505,7 +505,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2908">
+  <fills count="2910">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -15040,6 +15040,16 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="52"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
       </patternFill>
     </fill>
   </fills>
@@ -15059,7 +15069,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1507">
+  <cellXfs count="1508">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -16585,6 +16595,7 @@
     <xf numFmtId="0" fontId="0" fillId="2903" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="2905" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="2907" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2909" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -16915,7 +16926,7 @@
       <c r="E2" t="s" s="817">
         <v>5</v>
       </c>
-      <c r="F2" t="s" s="815">
+      <c r="F2" t="s" s="1507">
         <v>5</v>
       </c>
     </row>
@@ -17050,7 +17061,7 @@
         <v>105</v>
       </c>
       <c r="D9" t="s">
-        <v>105</v>
+        <v>6</v>
       </c>
       <c r="E9" t="s" s="824">
         <v>107</v>
@@ -17070,7 +17081,7 @@
         <v>124</v>
       </c>
       <c r="D10" t="s">
-        <v>108</v>
+        <v>6</v>
       </c>
       <c r="E10" t="s" s="825">
         <v>107</v>
@@ -17090,7 +17101,7 @@
         <v>125</v>
       </c>
       <c r="D11" t="s">
-        <v>109</v>
+        <v>6</v>
       </c>
       <c r="E11" t="s" s="826">
         <v>107</v>
@@ -17110,7 +17121,7 @@
         <v>126</v>
       </c>
       <c r="D12" t="s">
-        <v>110</v>
+        <v>6</v>
       </c>
       <c r="E12" t="s" s="827">
         <v>107</v>
@@ -17130,7 +17141,7 @@
         <v>127</v>
       </c>
       <c r="D13" t="s">
-        <v>111</v>
+        <v>6</v>
       </c>
       <c r="E13" t="s" s="828">
         <v>107</v>
@@ -17450,7 +17461,7 @@
         <v>106</v>
       </c>
       <c r="D29" t="s">
-        <v>106</v>
+        <v>6</v>
       </c>
       <c r="E29" t="s" s="844">
         <v>107</v>
@@ -17804,7 +17815,7 @@
         <v>104</v>
       </c>
       <c r="D47" t="s">
-        <v>104</v>
+        <v>6</v>
       </c>
       <c r="E47" t="s" s="862">
         <v>107</v>
